--- a/data/long_bre/P24_9-Estudios-long_bre.xlsx
+++ b/data/long_bre/P24_9-Estudios-long_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,10 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +543,17 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +575,37 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -590,6 +618,10 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -599,37 +631,57 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,67</t>
+          <t>6,28</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,58</t>
+          <t>3,94</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>478,74%</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-28,62%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>11,51%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>84,31%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>9,03%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-11,93%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -642,32 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,44; 13,43</t>
+          <t>2,59; 11,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-28,76; 5,5</t>
+          <t>-3,39; 10,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 6,52</t>
+          <t>-5,06; 6,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>48,95; 2138,8</t>
+          <t>-10,52; 5,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-86,32; 114,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-34,07; 102,14</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-47,98; 514,85</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-39,43; 93,14</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-66,26; 90,83</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -675,37 +747,57 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-6,98</t>
+          <t>-13,15</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>-7,55</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-3,87</t>
+          <t>-4,49</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-7,9%</t>
+          <t>-1,97</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-4,66%</t>
+          <t>-13,94%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-8,83%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-5,42%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-2,6%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -718,32 +810,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-14,7; 7,87</t>
+          <t>-22,53; -4,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,85; 23,07</t>
+          <t>-18,25; 1,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,21; 2,98</t>
+          <t>-11,89; 2,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,0; 10,17</t>
+          <t>-15,03; 10,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-11,48; 38,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-14,16; 3,75</t>
+          <t>-23,32; -4,64</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-20,38; 2,21</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-13,85; 3,72</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-18,28; 16,58</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -751,37 +863,57 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>6,86</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,28</t>
+          <t>3,62</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,81</t>
+          <t>3,63</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-6,84%</t>
+          <t>3,14</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>39,48%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>36,15%</t>
+          <t>120,29%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>36,98%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>48,13%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>21,82%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -794,74 +926,110 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,86; 5,54</t>
+          <t>-1,73; 15,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 9,52</t>
+          <t>-4,19; 12,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 8,83</t>
+          <t>-1,95; 9,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-76,04; 115,53</t>
+          <t>-6,64; 14,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-29,7; 166,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-23,33; 167,48</t>
+          <t>-32,44; 627,32</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-31,21; 215,24</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-19,77; 200,63</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-33,56; 156,96</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,41</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>161,64%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-7,77%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -874,70 +1042,114 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,74; 7,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 4,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 3,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>42,59; 384,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-38,16; 61,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-45,12; 49,09</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-6,75</t>
+          <t>5,84</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,64</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-7,52%</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,61%</t>
+          <t>248,64%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5,86%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-3,57%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5,08%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -950,32 +1162,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,35; -2,1</t>
+          <t>2,36; 12,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 7,32</t>
+          <t>-5,13; 5,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 10,57</t>
+          <t>-5,02; 3,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-12,51; -2,4</t>
+          <t>-3,79; 4,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 9,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 14,47</t>
+          <t>55,37; 1103,12</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-44,9; 96,61</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-42,34; 47,35</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-41,58; 84,88</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -983,37 +1215,57 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,34</t>
+          <t>-7,31</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-2,95</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>31,11%</t>
+          <t>-3,68</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-8,4%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-24,27%</t>
+          <t>-8,17%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>3,02%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2,9%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-4,55%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1026,74 +1278,110 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 5,96</t>
+          <t>-14,37; -1,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 3,18</t>
+          <t>-4,14; 11,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 1,81</t>
+          <t>-3,46; 8,81</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-19,39; 102,86</t>
+          <t>-10,08; 3,43</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-47,88; 38,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-53,12; 22,67</t>
+          <t>-15,74; -1,64</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-4,93; 15,54</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-4,09; 11,85</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-12,01; 4,46</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-3,85</t>
+          <t>-2,89</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,38</t>
+          <t>-2,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>40,81%</t>
+          <t>3,3</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-30,02%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>40,54%</t>
+          <t>18,13%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-24,24%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-17,04%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>27,87%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1394,52 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 6,7</t>
+          <t>-3,89; 6,25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,62; 1,2</t>
+          <t>-11,12; 1,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 7,32</t>
+          <t>-7,47; 2,71</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-47,09; 173,19</t>
+          <t>-2,48; 8,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-58,68; 12,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 112,79</t>
+          <t>-37,74; 118,88</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-59,32; 22,23</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-49,18; 34,12</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-17,61; 93,83</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1139,37 +1447,57 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-5,57</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-6,77%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1182,70 +1510,114 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 7,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 8,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-10,92; 0,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 10,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 11,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-12,93; 0,23</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-3,74</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>-3,63</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>2,19</t>
+          <t>3,47</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-29,8%</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>25,59%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>23,37%</t>
+          <t>30,24%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-28,12%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>41,58%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-2,08%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1258,74 +1630,110 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 1,41</t>
+          <t>-7,61; 7,41</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 7,85</t>
+          <t>-9,79; 1,85</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 6,14</t>
+          <t>-0,59; 8,01</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-55,89; 14,92</t>
+          <t>-5,85; 4,86</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-26,84; 118,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-17,81; 81,38</t>
+          <t>-58,05; 191,52</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-56,64; 22,53</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-8,13; 121,46</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-44,21; 70,91</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>4,54</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-1,81</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>-5,84</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>129,54%</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-16,63%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>11,96%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1,22%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-7,1%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-0,03%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1746,52 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2,06; 6,82</t>
+          <t>-7,75; 8,06</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 1,41</t>
+          <t>-7,01; 8,73</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 3,43</t>
+          <t>-11,26; 0,08</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>34,11; 254,85</t>
+          <t>-7,39; 7,97</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-43,53; 18,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-19,6; 46,08</t>
+          <t>-9,34; 11,15</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-8,46; 12,1</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-13,18; 0,16</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-9,73; 11,58</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1371,37 +1799,57 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-4,47</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>2,7</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-5,13%</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-1,21%</t>
+          <t>-16,98%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>25,56%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>25,34%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1,38%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1862,52 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-8,17; -0,69</t>
+          <t>-8,4; 3,65</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 5,67</t>
+          <t>-4,49; 8,61</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 2,98</t>
+          <t>-1,65; 6,49</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-9,2; -0,86</t>
+          <t>-6,1; 6,83</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 7,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 3,8</t>
+          <t>-50,05; 41,14</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-32,16; 117,13</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-14,89; 84,63</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-29,37; 53,63</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1447,37 +1915,57 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-0,83%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>10,78%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-0,67%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1490,44 +1978,1008 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 2,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 4,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 2,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-28,41; 36,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-22,33; 49,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-27,6; 34,69</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>4,35</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>-4,89</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>115,15%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-31,57%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>0,88; 8,05</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>-18,93; 3,58</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>12,36; 314,43</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-72,66; 38,98</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>-2,06</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>-2,41%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>0,6%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>-7,89; 4,81</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-9,14; 14,8</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-8,96; 5,93</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-10,7; 20,4</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>-2,29</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>4,41</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-21,05%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>87,46%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-9,66; 2,13</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-1,31; 9,56</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-60,13; 27,49</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-22,68; 298,15</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>4,57</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>-1,32</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>1,23</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>-0,06</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>124,77%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>-12,66%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>14,05%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>-0,67%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>1,89; 7,07</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>-5,74; 1,49</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>-1,44; 3,71</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>-3,22; 2,78</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>31,7; 257,43</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>-42,23; 17,31</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>-14,36; 50,15</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>-29,35; 38,79</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>-4,43</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>0,19</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>-1,83</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>-2,3</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>-5,13%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>0,24%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>-2,26%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>-2,97%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>-8,25; -0,37</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>-4,06; 4,61</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>-5,29; 2,0</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>-6,59; 2,43</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>-9,54; -0,48</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>-4,88; 6,04</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>-6,35; 2,59</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>-8,38; 3,25</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>-0,15</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>1,13</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>0,61</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>2,35</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>-1,47%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>11,49%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>5,99%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>16,89%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>-3,92; 2,72</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>-2,48; 3,94</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>-2,57; 3,46</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>-1,62; 6,19</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>-31,1; 34,46</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>-21,83; 48,04</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>-20,75; 41,43</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>-10,32; 51,68</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="8">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_bre/P24_9-Estudios-long_bre.xlsx
+++ b/data/long_bre/P24_9-Estudios-long_bre.xlsx
@@ -640,7 +640,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -740,7 +740,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -842,7 +842,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -948,7 +948,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1050,7 +1050,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1152,7 +1152,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1360,7 +1360,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1462,7 +1462,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1670,7 +1670,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1772,7 +1772,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
